--- a/resources/ClinicianAccount.xlsx
+++ b/resources/ClinicianAccount.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="95">
   <si>
     <t>Name</t>
   </si>
@@ -108,71 +108,219 @@
     <t>//button[@ng-click="vm.newUserClick($event)"]</t>
   </si>
   <si>
-    <t>Ot</t>
-  </si>
-  <si>
     <t>clinician.ot1@cvhcare.com</t>
   </si>
   <si>
-    <t>Pt</t>
-  </si>
-  <si>
     <t>clinician.pt1@cvhcare.com</t>
   </si>
   <si>
-    <t>ST</t>
-  </si>
-  <si>
     <t>clinician.st1@cvhcare.com</t>
   </si>
   <si>
-    <t>MSW</t>
-  </si>
-  <si>
     <t>clinician.msw1@cvhcare.com</t>
   </si>
   <si>
-    <t>chha</t>
-  </si>
-  <si>
     <t>clinician.chha1@cvhcare.com</t>
   </si>
   <si>
-    <t>rd</t>
-  </si>
-  <si>
     <t>clinician.rd1@cvhcare.com</t>
   </si>
   <si>
-    <t>developer</t>
-  </si>
-  <si>
     <t>user1</t>
   </si>
   <si>
-    <t>developer.user1@cvhcare.com</t>
-  </si>
-  <si>
     <t>Account Management</t>
   </si>
   <si>
     <t>//button[@aria-label="Account Management"]</t>
   </si>
   <si>
-    <t>//div[text() = 'HR']</t>
+    <t>hr.user1@cvhcare.com</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/div/section/div[5]/button/md-icon</t>
+  </si>
+  <si>
+    <t>Clinician List</t>
+  </si>
+  <si>
+    <t>//div[text() = 'HR' and @class="_md-text ng-binding"]</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Hr1</t>
+  </si>
+  <si>
+    <t>rn1</t>
+  </si>
+  <si>
+    <t>Ot1</t>
+  </si>
+  <si>
+    <t>Pt1</t>
+  </si>
+  <si>
+    <t>ST1</t>
+  </si>
+  <si>
+    <t>MSW1</t>
+  </si>
+  <si>
+    <t>chha1</t>
+  </si>
+  <si>
+    <t>rd1</t>
+  </si>
+  <si>
+    <t>Pta</t>
+  </si>
+  <si>
+    <t>clinician.pta1@cvhcare.com</t>
+  </si>
+  <si>
+    <t>lvn</t>
+  </si>
+  <si>
+    <t>cota</t>
+  </si>
+  <si>
+    <t>clinician.lvn1@cvhcare.com</t>
+  </si>
+  <si>
+    <t>clinician.cota1@cvhcare.com</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/div/md-content/div/div/div/div[1]/button[2]/md-icon</t>
+  </si>
+  <si>
+    <t>Search Icon</t>
+  </si>
+  <si>
+    <t>//*[@id="inputField"]</t>
+  </si>
+  <si>
+    <t>Search Field</t>
+  </si>
+  <si>
+    <t>pt1</t>
+  </si>
+  <si>
+    <t>//td[@ng-click="vm.edittype($event)"]</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>//md-edit-dialog//md-input-container</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[6]</t>
+  </si>
+  <si>
+    <t>Edit Modal</t>
+  </si>
+  <si>
+    <t>Select PT</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/div/md-content/md-list/div[11]/md-list-item/div/button</t>
+  </si>
+  <si>
+    <t>Select first result</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[10]</t>
+  </si>
+  <si>
+    <t>/html/body/md-edit-dialog/div[2]/button[2]</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>/html/body/md-toast/div/span</t>
+  </si>
+  <si>
+    <t>Update notification</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[1]</t>
+  </si>
+  <si>
+    <t>pta1</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[2]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[3]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[4]</t>
+  </si>
+  <si>
+    <t>lvn1</t>
+  </si>
+  <si>
+    <t>cota1</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[5]</t>
+  </si>
+  <si>
+    <t>ot1</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[7]</t>
+  </si>
+  <si>
+    <t>st1</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[8]</t>
+  </si>
+  <si>
+    <t>msw1</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[9]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,10 +340,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -212,8 +364,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -506,16 +660,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.7109375" style="5"/>
-    <col min="2" max="2" width="30.7109375" style="4"/>
+    <col min="2" max="2" width="56.140625" style="4" customWidth="1"/>
     <col min="3" max="16384" width="30.7109375" style="5"/>
   </cols>
   <sheetData>
@@ -548,12 +702,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="18.75" customHeight="1">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -568,10 +722,10 @@
       <c r="G2">
         <v>10</v>
       </c>
-      <c r="H2"/>
-      <c r="I2"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="18.75" customHeight="1">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -591,10 +745,8 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3"/>
-      <c r="I3"/>
-    </row>
-    <row r="4" spans="1:9" ht="45">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -605,13 +757,13 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:9" ht="45">
+    <row r="5" spans="1:9" ht="33" customHeight="1">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -622,13 +774,13 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:9" ht="30">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -638,14 +790,14 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
-        <v>44</v>
+      <c r="D6" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:9" ht="30">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -671,7 +823,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -687,7 +839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -723,7 +875,7 @@
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="18.75" customHeight="1">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -743,10 +895,8 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11"/>
-      <c r="I11"/>
-    </row>
-    <row r="12" spans="1:9" ht="45">
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -763,7 +913,7 @@
       <c r="F12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:9" ht="45">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -774,13 +924,13 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:9" ht="30">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -797,7 +947,7 @@
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:9" ht="30">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -839,7 +989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -875,7 +1025,7 @@
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" ht="45">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -896,7 +1046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -913,7 +1063,7 @@
       <c r="F20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" ht="45">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -924,13 +1074,13 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" ht="30">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -941,13 +1091,13 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" ht="30">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -989,7 +1139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1025,7 +1175,7 @@
       <c r="F26"/>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7" ht="45">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1046,7 +1196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="45">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1063,7 +1213,7 @@
       <c r="F28"/>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" ht="45">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1074,13 +1224,13 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
     </row>
-    <row r="30" spans="1:7" ht="30">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1091,13 +1241,13 @@
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:7" ht="30">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -1139,7 +1289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -1175,7 +1325,7 @@
       <c r="F34"/>
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:7" ht="45">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -1196,7 +1346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="45">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -1213,7 +1363,7 @@
       <c r="F36"/>
       <c r="G36"/>
     </row>
-    <row r="37" spans="1:7" ht="45">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1224,13 +1374,13 @@
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:7" ht="30">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -1241,13 +1391,13 @@
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="1:7" ht="30">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -1289,7 +1439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -1325,7 +1475,7 @@
       <c r="F42"/>
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:7" ht="45">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -1346,7 +1496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="45">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1363,7 +1513,7 @@
       <c r="F44"/>
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:7" ht="45">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -1374,13 +1524,13 @@
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="1:7" ht="30">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -1391,13 +1541,13 @@
         <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E46"/>
       <c r="F46"/>
       <c r="G46"/>
     </row>
-    <row r="47" spans="1:7" ht="30">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -1439,7 +1589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>23</v>
       </c>
@@ -1475,7 +1625,7 @@
       <c r="F50"/>
       <c r="G50"/>
     </row>
-    <row r="51" spans="1:7" ht="45">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -1496,7 +1646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="45">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1513,7 +1663,7 @@
       <c r="F52"/>
       <c r="G52"/>
     </row>
-    <row r="53" spans="1:7" ht="45">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -1524,13 +1674,13 @@
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E53"/>
       <c r="F53"/>
       <c r="G53"/>
     </row>
-    <row r="54" spans="1:7" ht="30">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -1541,13 +1691,13 @@
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E54"/>
       <c r="F54"/>
       <c r="G54"/>
     </row>
-    <row r="55" spans="1:7" ht="30">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -1589,7 +1739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="30">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -1625,7 +1775,7 @@
       <c r="F58"/>
       <c r="G58"/>
     </row>
-    <row r="59" spans="1:7" ht="45">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>28</v>
       </c>
@@ -1646,7 +1796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="45">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -1663,7 +1813,7 @@
       <c r="F60"/>
       <c r="G60"/>
     </row>
-    <row r="61" spans="1:7" ht="45">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -1674,13 +1824,13 @@
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E61"/>
       <c r="F61"/>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:7" ht="30">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -1691,13 +1841,13 @@
         <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E62"/>
       <c r="F62"/>
       <c r="G62"/>
     </row>
-    <row r="63" spans="1:7" ht="30">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>18</v>
       </c>
@@ -1739,7 +1889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="30">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -1775,19 +1925,1882 @@
       <c r="F66"/>
       <c r="G66"/>
     </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s">
+        <v>59</v>
+      </c>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s">
+        <v>60</v>
+      </c>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79"/>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81"/>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83"/>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s">
+        <v>57</v>
+      </c>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87"/>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88"/>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89"/>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>25</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F91" s="5">
+        <v>1</v>
+      </c>
+      <c r="G91" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F92" s="5">
+        <v>1</v>
+      </c>
+      <c r="G92" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="30">
+      <c r="A93" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C93" t="s">
+        <v>20</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="30">
+      <c r="A94" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" s="5">
+        <v>1</v>
+      </c>
+      <c r="F94" s="5">
+        <v>1</v>
+      </c>
+      <c r="G94" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="30">
+      <c r="A96" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96" s="5">
+        <v>1</v>
+      </c>
+      <c r="F96" s="5">
+        <v>1</v>
+      </c>
+      <c r="G96" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" s="5">
+        <v>1</v>
+      </c>
+      <c r="F97" s="5">
+        <v>1</v>
+      </c>
+      <c r="G97" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" s="5">
+        <v>1</v>
+      </c>
+      <c r="F98" s="5">
+        <v>1</v>
+      </c>
+      <c r="G98" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="30">
+      <c r="A99" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" s="5">
+        <v>1</v>
+      </c>
+      <c r="F99" s="5">
+        <v>1</v>
+      </c>
+      <c r="G99" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" s="5">
+        <v>1</v>
+      </c>
+      <c r="F100" s="5">
+        <v>1</v>
+      </c>
+      <c r="G100" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="30">
+      <c r="A103" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E103" s="5">
+        <v>1</v>
+      </c>
+      <c r="F103" s="5">
+        <v>1</v>
+      </c>
+      <c r="G103" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E104" s="5">
+        <v>1</v>
+      </c>
+      <c r="F104" s="5">
+        <v>1</v>
+      </c>
+      <c r="G104" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E105" s="5">
+        <v>1</v>
+      </c>
+      <c r="F105" s="5">
+        <v>1</v>
+      </c>
+      <c r="G105" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="30">
+      <c r="A106" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E106" s="5">
+        <v>1</v>
+      </c>
+      <c r="F106" s="5">
+        <v>1</v>
+      </c>
+      <c r="G106" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E107" s="5">
+        <v>1</v>
+      </c>
+      <c r="F107" s="5">
+        <v>1</v>
+      </c>
+      <c r="G107" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="30">
+      <c r="A110" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E110" s="5">
+        <v>1</v>
+      </c>
+      <c r="F110" s="5">
+        <v>1</v>
+      </c>
+      <c r="G110" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E111" s="5">
+        <v>1</v>
+      </c>
+      <c r="F111" s="5">
+        <v>1</v>
+      </c>
+      <c r="G111" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112" s="5">
+        <v>1</v>
+      </c>
+      <c r="F112" s="5">
+        <v>1</v>
+      </c>
+      <c r="G112" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="30">
+      <c r="A113" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113" s="5">
+        <v>1</v>
+      </c>
+      <c r="F113" s="5">
+        <v>1</v>
+      </c>
+      <c r="G113" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E114" s="5">
+        <v>1</v>
+      </c>
+      <c r="F114" s="5">
+        <v>1</v>
+      </c>
+      <c r="G114" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="30">
+      <c r="A117" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E117" s="5">
+        <v>1</v>
+      </c>
+      <c r="F117" s="5">
+        <v>1</v>
+      </c>
+      <c r="G117" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118" s="5">
+        <v>1</v>
+      </c>
+      <c r="F118" s="5">
+        <v>1</v>
+      </c>
+      <c r="G118" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119" s="5">
+        <v>1</v>
+      </c>
+      <c r="F119" s="5">
+        <v>1</v>
+      </c>
+      <c r="G119" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="30">
+      <c r="A120" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E120" s="5">
+        <v>1</v>
+      </c>
+      <c r="F120" s="5">
+        <v>1</v>
+      </c>
+      <c r="G120" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121" s="5">
+        <v>1</v>
+      </c>
+      <c r="F121" s="5">
+        <v>1</v>
+      </c>
+      <c r="G121" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="30">
+      <c r="A124" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E124" s="5">
+        <v>1</v>
+      </c>
+      <c r="F124" s="5">
+        <v>1</v>
+      </c>
+      <c r="G124" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E125" s="5">
+        <v>1</v>
+      </c>
+      <c r="F125" s="5">
+        <v>1</v>
+      </c>
+      <c r="G125" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E126" s="5">
+        <v>1</v>
+      </c>
+      <c r="F126" s="5">
+        <v>1</v>
+      </c>
+      <c r="G126" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="30">
+      <c r="A127" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E127" s="5">
+        <v>1</v>
+      </c>
+      <c r="F127" s="5">
+        <v>1</v>
+      </c>
+      <c r="G127" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E128" s="5">
+        <v>1</v>
+      </c>
+      <c r="F128" s="5">
+        <v>1</v>
+      </c>
+      <c r="G128" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="30">
+      <c r="A131" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E131" s="5">
+        <v>1</v>
+      </c>
+      <c r="F131" s="5">
+        <v>1</v>
+      </c>
+      <c r="G131" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E132" s="5">
+        <v>1</v>
+      </c>
+      <c r="F132" s="5">
+        <v>1</v>
+      </c>
+      <c r="G132" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E133" s="5">
+        <v>1</v>
+      </c>
+      <c r="F133" s="5">
+        <v>1</v>
+      </c>
+      <c r="G133" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="30">
+      <c r="A134" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E134" s="5">
+        <v>1</v>
+      </c>
+      <c r="F134" s="5">
+        <v>1</v>
+      </c>
+      <c r="G134" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E135" s="5">
+        <v>1</v>
+      </c>
+      <c r="F135" s="5">
+        <v>1</v>
+      </c>
+      <c r="G135" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="30">
+      <c r="A138" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E138" s="5">
+        <v>1</v>
+      </c>
+      <c r="F138" s="5">
+        <v>1</v>
+      </c>
+      <c r="G138" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E139" s="5">
+        <v>1</v>
+      </c>
+      <c r="F139" s="5">
+        <v>1</v>
+      </c>
+      <c r="G139" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E140" s="5">
+        <v>1</v>
+      </c>
+      <c r="F140" s="5">
+        <v>1</v>
+      </c>
+      <c r="G140" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="30">
+      <c r="A141" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E141" s="5">
+        <v>1</v>
+      </c>
+      <c r="F141" s="5">
+        <v>1</v>
+      </c>
+      <c r="G141" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E142" s="5">
+        <v>1</v>
+      </c>
+      <c r="F142" s="5">
+        <v>1</v>
+      </c>
+      <c r="G142" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="30">
+      <c r="A145" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E145" s="5">
+        <v>1</v>
+      </c>
+      <c r="F145" s="5">
+        <v>1</v>
+      </c>
+      <c r="G145" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E146" s="5">
+        <v>1</v>
+      </c>
+      <c r="F146" s="5">
+        <v>1</v>
+      </c>
+      <c r="G146" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E147" s="5">
+        <v>1</v>
+      </c>
+      <c r="F147" s="5">
+        <v>1</v>
+      </c>
+      <c r="G147" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="30">
+      <c r="A148" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E148" s="5">
+        <v>1</v>
+      </c>
+      <c r="F148" s="5">
+        <v>1</v>
+      </c>
+      <c r="G148" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E149" s="5">
+        <v>1</v>
+      </c>
+      <c r="F149" s="5">
+        <v>1</v>
+      </c>
+      <c r="G149" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="30">
+      <c r="A152" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E152" s="5">
+        <v>1</v>
+      </c>
+      <c r="F152" s="5">
+        <v>1</v>
+      </c>
+      <c r="G152" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E153" s="5">
+        <v>1</v>
+      </c>
+      <c r="F153" s="5">
+        <v>1</v>
+      </c>
+      <c r="G153" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E154" s="5">
+        <v>1</v>
+      </c>
+      <c r="F154" s="5">
+        <v>1</v>
+      </c>
+      <c r="G154" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="30">
+      <c r="A155" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E155" s="5">
+        <v>1</v>
+      </c>
+      <c r="F155" s="5">
+        <v>1</v>
+      </c>
+      <c r="G155" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E156" s="5">
+        <v>1</v>
+      </c>
+      <c r="F156" s="5">
+        <v>1</v>
+      </c>
+      <c r="G156" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="30">
+      <c r="A159" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E159" s="5">
+        <v>1</v>
+      </c>
+      <c r="F159" s="5">
+        <v>1</v>
+      </c>
+      <c r="G159" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E160" s="5">
+        <v>1</v>
+      </c>
+      <c r="F160" s="5">
+        <v>1</v>
+      </c>
+      <c r="G160" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E161" s="5">
+        <v>1</v>
+      </c>
+      <c r="F161" s="5">
+        <v>1</v>
+      </c>
+      <c r="G161" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="30">
+      <c r="A162" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E162" s="5">
+        <v>1</v>
+      </c>
+      <c r="F162" s="5">
+        <v>1</v>
+      </c>
+      <c r="G162" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E163" s="5">
+        <v>1</v>
+      </c>
+      <c r="F163" s="5">
+        <v>1</v>
+      </c>
+      <c r="G163" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1"/>
+    <hyperlink ref="D70" r:id="rId2"/>
+    <hyperlink ref="D78" r:id="rId3"/>
+    <hyperlink ref="D86" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="H1:I65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G89"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="8:9" s="1" customFormat="1" ht="18.75" customHeight="1">
+      <c r="H1"/>
+      <c r="I1"/>
+    </row>
+    <row r="2" spans="8:9" s="1" customFormat="1" ht="18.75" customHeight="1">
+      <c r="H2"/>
+      <c r="I2"/>
+    </row>
+    <row r="3" spans="8:9" s="5" customFormat="1"/>
+    <row r="4" spans="8:9" s="5" customFormat="1"/>
+    <row r="5" spans="8:9" s="5" customFormat="1"/>
+    <row r="6" spans="8:9" s="5" customFormat="1"/>
+    <row r="7" spans="8:9" s="5" customFormat="1"/>
+    <row r="8" spans="8:9" s="5" customFormat="1"/>
+    <row r="9" spans="8:9" s="5" customFormat="1"/>
+    <row r="10" spans="8:9" s="1" customFormat="1" ht="18.75" customHeight="1">
+      <c r="H10"/>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="8:9" s="5" customFormat="1"/>
+    <row r="12" spans="8:9" s="5" customFormat="1"/>
+    <row r="13" spans="8:9" s="5" customFormat="1"/>
+    <row r="14" spans="8:9" s="5" customFormat="1"/>
+    <row r="15" spans="8:9" s="5" customFormat="1"/>
+    <row r="16" spans="8:9" s="5" customFormat="1"/>
+    <row r="17" s="5" customFormat="1"/>
+    <row r="18" s="5" customFormat="1"/>
+    <row r="19" s="5" customFormat="1"/>
+    <row r="20" s="5" customFormat="1"/>
+    <row r="21" s="5" customFormat="1"/>
+    <row r="22" s="5" customFormat="1"/>
+    <row r="23" s="5" customFormat="1"/>
+    <row r="24" s="5" customFormat="1"/>
+    <row r="25" s="5" customFormat="1"/>
+    <row r="26" s="5" customFormat="1"/>
+    <row r="27" s="5" customFormat="1"/>
+    <row r="28" s="5" customFormat="1"/>
+    <row r="29" s="5" customFormat="1"/>
+    <row r="30" s="5" customFormat="1"/>
+    <row r="31" s="5" customFormat="1"/>
+    <row r="32" s="5" customFormat="1"/>
+    <row r="33" s="5" customFormat="1"/>
+    <row r="34" s="5" customFormat="1"/>
+    <row r="35" s="5" customFormat="1"/>
+    <row r="36" s="5" customFormat="1"/>
+    <row r="37" s="5" customFormat="1"/>
+    <row r="38" s="5" customFormat="1"/>
+    <row r="39" s="5" customFormat="1"/>
+    <row r="40" s="5" customFormat="1"/>
+    <row r="41" s="5" customFormat="1"/>
+    <row r="42" s="5" customFormat="1"/>
+    <row r="43" s="5" customFormat="1"/>
+    <row r="44" s="5" customFormat="1"/>
+    <row r="45" s="5" customFormat="1"/>
+    <row r="46" s="5" customFormat="1"/>
+    <row r="47" s="5" customFormat="1"/>
+    <row r="48" s="5" customFormat="1"/>
+    <row r="49" s="5" customFormat="1"/>
+    <row r="50" s="5" customFormat="1"/>
+    <row r="51" s="5" customFormat="1"/>
+    <row r="52" s="5" customFormat="1"/>
+    <row r="53" s="5" customFormat="1"/>
+    <row r="54" s="5" customFormat="1"/>
+    <row r="55" s="5" customFormat="1"/>
+    <row r="56" s="5" customFormat="1"/>
+    <row r="57" s="5" customFormat="1"/>
+    <row r="58" s="5" customFormat="1"/>
+    <row r="59" s="5" customFormat="1"/>
+    <row r="60" s="5" customFormat="1"/>
+    <row r="61" s="5" customFormat="1"/>
+    <row r="62" s="5" customFormat="1"/>
+    <row r="63" s="5" customFormat="1"/>
+    <row r="64" s="5" customFormat="1"/>
+    <row r="65" s="5" customFormat="1"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/resources/ClinicianAccount.xlsx
+++ b/resources/ClinicianAccount.xlsx
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15"/>
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="30">
@@ -3710,97 +3710,23 @@
     <hyperlink ref="D86" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="H1:I65"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G89"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection sqref="A1:XFD89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="57.140625" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="8:9" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="H1"/>
-      <c r="I1"/>
-    </row>
-    <row r="2" spans="8:9" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="H2"/>
-      <c r="I2"/>
-    </row>
-    <row r="3" spans="8:9" s="5" customFormat="1"/>
-    <row r="4" spans="8:9" s="5" customFormat="1"/>
-    <row r="5" spans="8:9" s="5" customFormat="1"/>
-    <row r="6" spans="8:9" s="5" customFormat="1"/>
-    <row r="7" spans="8:9" s="5" customFormat="1"/>
-    <row r="8" spans="8:9" s="5" customFormat="1"/>
-    <row r="9" spans="8:9" s="5" customFormat="1"/>
-    <row r="10" spans="8:9" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="H10"/>
-      <c r="I10"/>
-    </row>
-    <row r="11" spans="8:9" s="5" customFormat="1"/>
-    <row r="12" spans="8:9" s="5" customFormat="1"/>
-    <row r="13" spans="8:9" s="5" customFormat="1"/>
-    <row r="14" spans="8:9" s="5" customFormat="1"/>
-    <row r="15" spans="8:9" s="5" customFormat="1"/>
-    <row r="16" spans="8:9" s="5" customFormat="1"/>
-    <row r="17" s="5" customFormat="1"/>
-    <row r="18" s="5" customFormat="1"/>
-    <row r="19" s="5" customFormat="1"/>
-    <row r="20" s="5" customFormat="1"/>
-    <row r="21" s="5" customFormat="1"/>
-    <row r="22" s="5" customFormat="1"/>
-    <row r="23" s="5" customFormat="1"/>
-    <row r="24" s="5" customFormat="1"/>
-    <row r="25" s="5" customFormat="1"/>
-    <row r="26" s="5" customFormat="1"/>
-    <row r="27" s="5" customFormat="1"/>
-    <row r="28" s="5" customFormat="1"/>
-    <row r="29" s="5" customFormat="1"/>
-    <row r="30" s="5" customFormat="1"/>
-    <row r="31" s="5" customFormat="1"/>
-    <row r="32" s="5" customFormat="1"/>
-    <row r="33" s="5" customFormat="1"/>
-    <row r="34" s="5" customFormat="1"/>
-    <row r="35" s="5" customFormat="1"/>
-    <row r="36" s="5" customFormat="1"/>
-    <row r="37" s="5" customFormat="1"/>
-    <row r="38" s="5" customFormat="1"/>
-    <row r="39" s="5" customFormat="1"/>
-    <row r="40" s="5" customFormat="1"/>
-    <row r="41" s="5" customFormat="1"/>
-    <row r="42" s="5" customFormat="1"/>
-    <row r="43" s="5" customFormat="1"/>
-    <row r="44" s="5" customFormat="1"/>
-    <row r="45" s="5" customFormat="1"/>
-    <row r="46" s="5" customFormat="1"/>
-    <row r="47" s="5" customFormat="1"/>
-    <row r="48" s="5" customFormat="1"/>
-    <row r="49" s="5" customFormat="1"/>
-    <row r="50" s="5" customFormat="1"/>
-    <row r="51" s="5" customFormat="1"/>
-    <row r="52" s="5" customFormat="1"/>
-    <row r="53" s="5" customFormat="1"/>
-    <row r="54" s="5" customFormat="1"/>
-    <row r="55" s="5" customFormat="1"/>
-    <row r="56" s="5" customFormat="1"/>
-    <row r="57" s="5" customFormat="1"/>
-    <row r="58" s="5" customFormat="1"/>
-    <row r="59" s="5" customFormat="1"/>
-    <row r="60" s="5" customFormat="1"/>
-    <row r="61" s="5" customFormat="1"/>
-    <row r="62" s="5" customFormat="1"/>
-    <row r="63" s="5" customFormat="1"/>
-    <row r="64" s="5" customFormat="1"/>
-    <row r="65" s="5" customFormat="1"/>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/resources/ClinicianAccount.xlsx
+++ b/resources/ClinicianAccount.xlsx
@@ -54,9 +54,6 @@
     <t>input</t>
   </si>
   <si>
-    <t>clinicain</t>
-  </si>
-  <si>
     <t>Last Name</t>
   </si>
   <si>
@@ -301,6 +298,9 @@
   </si>
   <si>
     <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[9]</t>
+  </si>
+  <si>
+    <t>clinician</t>
   </si>
 </sst>
 </file>
@@ -663,7 +663,7 @@
   <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD90"/>
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15"/>
@@ -704,13 +704,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2"/>
       <c r="E2">
@@ -727,13 +727,13 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3"/>
       <c r="E3">
@@ -757,7 +757,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -765,16 +765,16 @@
     </row>
     <row r="5" spans="1:9" ht="33" customHeight="1">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -782,16 +782,16 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -799,13 +799,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7"/>
       <c r="E7">
@@ -820,13 +820,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8"/>
       <c r="E8">
@@ -841,13 +841,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9"/>
       <c r="E9">
@@ -862,13 +862,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -877,13 +877,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11"/>
       <c r="E11">
@@ -907,7 +907,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -915,16 +915,16 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
@@ -932,16 +932,16 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -949,13 +949,13 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15"/>
       <c r="E15">
@@ -970,13 +970,13 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16"/>
       <c r="E16">
@@ -991,13 +991,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17"/>
       <c r="E17">
@@ -1012,13 +1012,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" t="s">
         <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -1027,13 +1027,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19"/>
       <c r="E19">
@@ -1057,7 +1057,7 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
@@ -1065,16 +1065,16 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C21" t="s">
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
@@ -1082,16 +1082,16 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="C22" t="s">
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
@@ -1099,13 +1099,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23"/>
       <c r="E23">
@@ -1120,13 +1120,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24"/>
       <c r="E24">
@@ -1141,13 +1141,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25"/>
       <c r="E25">
@@ -1162,13 +1162,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" t="s">
         <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -1177,13 +1177,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27"/>
       <c r="E27">
@@ -1207,7 +1207,7 @@
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
@@ -1215,16 +1215,16 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C29" t="s">
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
@@ -1232,16 +1232,16 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
@@ -1249,13 +1249,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31"/>
       <c r="E31">
@@ -1270,13 +1270,13 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32"/>
       <c r="E32">
@@ -1291,13 +1291,13 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D33"/>
       <c r="E33">
@@ -1312,13 +1312,13 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" t="s">
         <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
@@ -1327,13 +1327,13 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35"/>
       <c r="E35">
@@ -1357,7 +1357,7 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E36"/>
       <c r="F36"/>
@@ -1365,16 +1365,16 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C37" t="s">
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E37"/>
       <c r="F37"/>
@@ -1382,16 +1382,16 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="C38" t="s">
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E38"/>
       <c r="F38"/>
@@ -1399,13 +1399,13 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39"/>
       <c r="E39">
@@ -1420,13 +1420,13 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D40"/>
       <c r="E40">
@@ -1441,13 +1441,13 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D41"/>
       <c r="E41">
@@ -1462,13 +1462,13 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="C42" t="s">
         <v>26</v>
-      </c>
-      <c r="C42" t="s">
-        <v>27</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -1477,13 +1477,13 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D43"/>
       <c r="E43">
@@ -1507,7 +1507,7 @@
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E44"/>
       <c r="F44"/>
@@ -1515,16 +1515,16 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C45" t="s">
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E45"/>
       <c r="F45"/>
@@ -1532,16 +1532,16 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="C46" t="s">
         <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E46"/>
       <c r="F46"/>
@@ -1549,13 +1549,13 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D47"/>
       <c r="E47">
@@ -1570,13 +1570,13 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D48"/>
       <c r="E48">
@@ -1591,13 +1591,13 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D49"/>
       <c r="E49">
@@ -1612,13 +1612,13 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="C50" t="s">
         <v>26</v>
-      </c>
-      <c r="C50" t="s">
-        <v>27</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
@@ -1627,13 +1627,13 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D51"/>
       <c r="E51">
@@ -1657,7 +1657,7 @@
         <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E52"/>
       <c r="F52"/>
@@ -1665,16 +1665,16 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C53" t="s">
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E53"/>
       <c r="F53"/>
@@ -1682,16 +1682,16 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="C54" t="s">
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E54"/>
       <c r="F54"/>
@@ -1699,13 +1699,13 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D55"/>
       <c r="E55">
@@ -1720,13 +1720,13 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D56"/>
       <c r="E56">
@@ -1741,13 +1741,13 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D57"/>
       <c r="E57">
@@ -1762,13 +1762,13 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="C58" t="s">
         <v>26</v>
-      </c>
-      <c r="C58" t="s">
-        <v>27</v>
       </c>
       <c r="D58"/>
       <c r="E58"/>
@@ -1777,13 +1777,13 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D59"/>
       <c r="E59">
@@ -1807,7 +1807,7 @@
         <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E60"/>
       <c r="F60"/>
@@ -1815,16 +1815,16 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C61" t="s">
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E61"/>
       <c r="F61"/>
@@ -1832,16 +1832,16 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="C62" t="s">
         <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E62"/>
       <c r="F62"/>
@@ -1849,13 +1849,13 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D63"/>
       <c r="E63">
@@ -1870,13 +1870,13 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D64"/>
       <c r="E64">
@@ -1891,13 +1891,13 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D65"/>
       <c r="E65">
@@ -1912,13 +1912,13 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="C66" t="s">
         <v>26</v>
-      </c>
-      <c r="C66" t="s">
-        <v>27</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
@@ -1927,13 +1927,13 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D67"/>
       <c r="E67">
@@ -1957,7 +1957,7 @@
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E68"/>
       <c r="F68"/>
@@ -1965,16 +1965,16 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C69" t="s">
         <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E69"/>
       <c r="F69"/>
@@ -1982,16 +1982,16 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="C70" t="s">
         <v>11</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E70"/>
       <c r="F70"/>
@@ -1999,13 +1999,13 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D71"/>
       <c r="E71">
@@ -2020,13 +2020,13 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D72"/>
       <c r="E72">
@@ -2041,13 +2041,13 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D73"/>
       <c r="E73">
@@ -2062,13 +2062,13 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="C74" t="s">
         <v>26</v>
-      </c>
-      <c r="C74" t="s">
-        <v>27</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
@@ -2077,13 +2077,13 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D75"/>
       <c r="E75">
@@ -2107,7 +2107,7 @@
         <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E76"/>
       <c r="F76"/>
@@ -2115,16 +2115,16 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C77" t="s">
         <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E77"/>
       <c r="F77"/>
@@ -2132,16 +2132,16 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="C78" t="s">
         <v>11</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E78"/>
       <c r="F78"/>
@@ -2149,13 +2149,13 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D79"/>
       <c r="E79">
@@ -2170,13 +2170,13 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="C80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D80"/>
       <c r="E80">
@@ -2191,13 +2191,13 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D81"/>
       <c r="E81">
@@ -2212,13 +2212,13 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="C82" t="s">
         <v>26</v>
-      </c>
-      <c r="C82" t="s">
-        <v>27</v>
       </c>
       <c r="D82"/>
       <c r="E82"/>
@@ -2227,13 +2227,13 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D83"/>
       <c r="E83">
@@ -2257,7 +2257,7 @@
         <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E84"/>
       <c r="F84"/>
@@ -2265,16 +2265,16 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C85" t="s">
         <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E85"/>
       <c r="F85"/>
@@ -2282,16 +2282,16 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="C86" t="s">
         <v>11</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E86"/>
       <c r="F86"/>
@@ -2299,13 +2299,13 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D87"/>
       <c r="E87">
@@ -2320,13 +2320,13 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="C88" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D88"/>
       <c r="E88">
@@ -2341,13 +2341,13 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
+        <v>22</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="C89" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D89"/>
       <c r="E89">
@@ -2362,13 +2362,13 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
+        <v>24</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="C90" t="s">
         <v>26</v>
-      </c>
-      <c r="C90" t="s">
-        <v>27</v>
       </c>
       <c r="D90"/>
       <c r="E90"/>
@@ -2377,13 +2377,13 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F91" s="5">
         <v>1</v>
@@ -2394,16 +2394,16 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D92" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="F92" s="5">
         <v>1</v>
@@ -2414,13 +2414,13 @@
     </row>
     <row r="93" spans="1:7" ht="30">
       <c r="A93" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -2434,13 +2434,13 @@
     </row>
     <row r="94" spans="1:7" ht="30">
       <c r="A94" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E94" s="5">
         <v>1</v>
@@ -2454,27 +2454,27 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="30">
       <c r="A96" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E96" s="5">
         <v>1</v>
@@ -2488,13 +2488,13 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E97" s="5">
         <v>1</v>
@@ -2508,13 +2508,13 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E98" s="5">
         <v>1</v>
@@ -2528,13 +2528,13 @@
     </row>
     <row r="99" spans="1:7" ht="30">
       <c r="A99" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E99" s="5">
         <v>1</v>
@@ -2548,13 +2548,13 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E100" s="5">
         <v>1</v>
@@ -2568,38 +2568,38 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="30">
       <c r="A103" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E103" s="5">
         <v>1</v>
@@ -2613,13 +2613,13 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E104" s="5">
         <v>1</v>
@@ -2633,13 +2633,13 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E105" s="5">
         <v>1</v>
@@ -2653,13 +2653,13 @@
     </row>
     <row r="106" spans="1:7" ht="30">
       <c r="A106" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E106" s="5">
         <v>1</v>
@@ -2673,13 +2673,13 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E107" s="5">
         <v>1</v>
@@ -2693,38 +2693,38 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="30">
       <c r="A110" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E110" s="5">
         <v>1</v>
@@ -2738,13 +2738,13 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E111" s="5">
         <v>1</v>
@@ -2758,13 +2758,13 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E112" s="5">
         <v>1</v>
@@ -2778,13 +2778,13 @@
     </row>
     <row r="113" spans="1:7" ht="30">
       <c r="A113" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E113" s="5">
         <v>1</v>
@@ -2798,13 +2798,13 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E114" s="5">
         <v>1</v>
@@ -2818,38 +2818,38 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="30">
       <c r="A117" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E117" s="5">
         <v>1</v>
@@ -2863,13 +2863,13 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E118" s="5">
         <v>1</v>
@@ -2883,13 +2883,13 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E119" s="5">
         <v>1</v>
@@ -2903,13 +2903,13 @@
     </row>
     <row r="120" spans="1:7" ht="30">
       <c r="A120" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E120" s="5">
         <v>1</v>
@@ -2923,13 +2923,13 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E121" s="5">
         <v>1</v>
@@ -2943,38 +2943,38 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="30">
       <c r="A124" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E124" s="5">
         <v>1</v>
@@ -2988,13 +2988,13 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E125" s="5">
         <v>1</v>
@@ -3008,13 +3008,13 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E126" s="5">
         <v>1</v>
@@ -3028,13 +3028,13 @@
     </row>
     <row r="127" spans="1:7" ht="30">
       <c r="A127" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E127" s="5">
         <v>1</v>
@@ -3048,13 +3048,13 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E128" s="5">
         <v>1</v>
@@ -3068,38 +3068,38 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="30">
       <c r="A131" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E131" s="5">
         <v>1</v>
@@ -3113,13 +3113,13 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E132" s="5">
         <v>1</v>
@@ -3133,13 +3133,13 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E133" s="5">
         <v>1</v>
@@ -3153,13 +3153,13 @@
     </row>
     <row r="134" spans="1:7" ht="30">
       <c r="A134" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E134" s="5">
         <v>1</v>
@@ -3173,13 +3173,13 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E135" s="5">
         <v>1</v>
@@ -3193,38 +3193,38 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="30">
       <c r="A138" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E138" s="5">
         <v>1</v>
@@ -3238,13 +3238,13 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E139" s="5">
         <v>1</v>
@@ -3258,13 +3258,13 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E140" s="5">
         <v>1</v>
@@ -3278,13 +3278,13 @@
     </row>
     <row r="141" spans="1:7" ht="30">
       <c r="A141" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E141" s="5">
         <v>1</v>
@@ -3298,13 +3298,13 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E142" s="5">
         <v>1</v>
@@ -3318,38 +3318,38 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="30">
       <c r="A145" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E145" s="5">
         <v>1</v>
@@ -3363,13 +3363,13 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E146" s="5">
         <v>1</v>
@@ -3383,13 +3383,13 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E147" s="5">
         <v>1</v>
@@ -3403,13 +3403,13 @@
     </row>
     <row r="148" spans="1:7" ht="30">
       <c r="A148" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E148" s="5">
         <v>1</v>
@@ -3423,13 +3423,13 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E149" s="5">
         <v>1</v>
@@ -3443,38 +3443,38 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="30">
       <c r="A152" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E152" s="5">
         <v>1</v>
@@ -3488,13 +3488,13 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E153" s="5">
         <v>1</v>
@@ -3508,13 +3508,13 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E154" s="5">
         <v>1</v>
@@ -3528,13 +3528,13 @@
     </row>
     <row r="155" spans="1:7" ht="30">
       <c r="A155" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E155" s="5">
         <v>1</v>
@@ -3548,13 +3548,13 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E156" s="5">
         <v>1</v>
@@ -3568,38 +3568,38 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="30">
       <c r="A159" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E159" s="5">
         <v>1</v>
@@ -3613,13 +3613,13 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E160" s="5">
         <v>1</v>
@@ -3633,13 +3633,13 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E161" s="5">
         <v>1</v>
@@ -3653,13 +3653,13 @@
     </row>
     <row r="162" spans="1:7" ht="30">
       <c r="A162" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E162" s="5">
         <v>1</v>
@@ -3673,13 +3673,13 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E163" s="5">
         <v>1</v>
@@ -3693,13 +3693,13 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/resources/ClinicianAccount.xlsx
+++ b/resources/ClinicianAccount.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -135,33 +135,9 @@
     <t>hr.user1@cvhcare.com</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>function</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>/html/body/div/div/md-content/div/section/div[5]/button/md-icon</t>
-  </si>
-  <si>
-    <t>Clinician List</t>
-  </si>
-  <si>
     <t>//div[text() = 'HR' and @class="_md-text ng-binding"]</t>
   </si>
   <si>
-    <t>logout</t>
-  </si>
-  <si>
-    <t>Logout</t>
-  </si>
-  <si>
     <t>Hr1</t>
   </si>
   <si>
@@ -202,102 +178,6 @@
   </si>
   <si>
     <t>clinician.cota1@cvhcare.com</t>
-  </si>
-  <si>
-    <t>/html/body/div/div/md-content/div/md-content/div/div/div/div[1]/button[2]/md-icon</t>
-  </si>
-  <si>
-    <t>Search Icon</t>
-  </si>
-  <si>
-    <t>//*[@id="inputField"]</t>
-  </si>
-  <si>
-    <t>Search Field</t>
-  </si>
-  <si>
-    <t>pt1</t>
-  </si>
-  <si>
-    <t>//td[@ng-click="vm.edittype($event)"]</t>
-  </si>
-  <si>
-    <t>Edit</t>
-  </si>
-  <si>
-    <t>//md-edit-dialog//md-input-container</t>
-  </si>
-  <si>
-    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[6]</t>
-  </si>
-  <si>
-    <t>Edit Modal</t>
-  </si>
-  <si>
-    <t>Select PT</t>
-  </si>
-  <si>
-    <t>/html/body/div/div/md-content/div/md-content/md-list/div[11]/md-list-item/div/button</t>
-  </si>
-  <si>
-    <t>Select first result</t>
-  </si>
-  <si>
-    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[10]</t>
-  </si>
-  <si>
-    <t>/html/body/md-edit-dialog/div[2]/button[2]</t>
-  </si>
-  <si>
-    <t>Save</t>
-  </si>
-  <si>
-    <t>/html/body/md-toast/div/span</t>
-  </si>
-  <si>
-    <t>Update notification</t>
-  </si>
-  <si>
-    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[1]</t>
-  </si>
-  <si>
-    <t>pta1</t>
-  </si>
-  <si>
-    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[2]</t>
-  </si>
-  <si>
-    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[3]</t>
-  </si>
-  <si>
-    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[4]</t>
-  </si>
-  <si>
-    <t>lvn1</t>
-  </si>
-  <si>
-    <t>cota1</t>
-  </si>
-  <si>
-    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[5]</t>
-  </si>
-  <si>
-    <t>ot1</t>
-  </si>
-  <si>
-    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[7]</t>
-  </si>
-  <si>
-    <t>st1</t>
-  </si>
-  <si>
-    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[8]</t>
-  </si>
-  <si>
-    <t>msw1</t>
-  </si>
-  <si>
-    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[9]</t>
   </si>
   <si>
     <t>clinician</t>
@@ -660,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I164"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15"/>
@@ -757,7 +637,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -823,7 +703,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -907,7 +787,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -924,7 +804,7 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
@@ -1057,7 +937,7 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
@@ -1074,7 +954,7 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
@@ -1207,7 +1087,7 @@
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
@@ -1224,7 +1104,7 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
@@ -1357,7 +1237,7 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="E36"/>
       <c r="F36"/>
@@ -1374,7 +1254,7 @@
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E37"/>
       <c r="F37"/>
@@ -1507,7 +1387,7 @@
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="E44"/>
       <c r="F44"/>
@@ -1524,7 +1404,7 @@
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E45"/>
       <c r="F45"/>
@@ -1657,7 +1537,7 @@
         <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="E52"/>
       <c r="F52"/>
@@ -1674,7 +1554,7 @@
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E53"/>
       <c r="F53"/>
@@ -1807,7 +1687,7 @@
         <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="E60"/>
       <c r="F60"/>
@@ -1824,7 +1704,7 @@
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E61"/>
       <c r="F61"/>
@@ -1957,7 +1837,7 @@
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="E68"/>
       <c r="F68"/>
@@ -1974,7 +1854,7 @@
         <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E69"/>
       <c r="F69"/>
@@ -1991,7 +1871,7 @@
         <v>11</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E70"/>
       <c r="F70"/>
@@ -2107,7 +1987,7 @@
         <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="E76"/>
       <c r="F76"/>
@@ -2124,7 +2004,7 @@
         <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E77"/>
       <c r="F77"/>
@@ -2141,7 +2021,7 @@
         <v>11</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E78"/>
       <c r="F78"/>
@@ -2257,7 +2137,7 @@
         <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="E84"/>
       <c r="F84"/>
@@ -2274,7 +2154,7 @@
         <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E85"/>
       <c r="F85"/>
@@ -2291,7 +2171,7 @@
         <v>11</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E86"/>
       <c r="F86"/>
@@ -2374,1333 +2254,6 @@
       <c r="E90"/>
       <c r="F90"/>
       <c r="G90"/>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F91" s="5">
-        <v>1</v>
-      </c>
-      <c r="G91" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F92" s="5">
-        <v>1</v>
-      </c>
-      <c r="G92" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="30">
-      <c r="A93" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C93" t="s">
-        <v>19</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-      <c r="F93">
-        <v>1</v>
-      </c>
-      <c r="G93">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="30">
-      <c r="A94" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E94" s="5">
-        <v>1</v>
-      </c>
-      <c r="F94" s="5">
-        <v>1</v>
-      </c>
-      <c r="G94" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="30">
-      <c r="A96" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E96" s="5">
-        <v>1</v>
-      </c>
-      <c r="F96" s="5">
-        <v>1</v>
-      </c>
-      <c r="G96" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E97" s="5">
-        <v>1</v>
-      </c>
-      <c r="F97" s="5">
-        <v>1</v>
-      </c>
-      <c r="G97" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E98" s="5">
-        <v>1</v>
-      </c>
-      <c r="F98" s="5">
-        <v>1</v>
-      </c>
-      <c r="G98" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="30">
-      <c r="A99" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E99" s="5">
-        <v>1</v>
-      </c>
-      <c r="F99" s="5">
-        <v>1</v>
-      </c>
-      <c r="G99" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E100" s="5">
-        <v>1</v>
-      </c>
-      <c r="F100" s="5">
-        <v>1</v>
-      </c>
-      <c r="G100" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="30">
-      <c r="A103" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E103" s="5">
-        <v>1</v>
-      </c>
-      <c r="F103" s="5">
-        <v>1</v>
-      </c>
-      <c r="G103" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E104" s="5">
-        <v>1</v>
-      </c>
-      <c r="F104" s="5">
-        <v>1</v>
-      </c>
-      <c r="G104" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E105" s="5">
-        <v>1</v>
-      </c>
-      <c r="F105" s="5">
-        <v>1</v>
-      </c>
-      <c r="G105" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="30">
-      <c r="A106" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E106" s="5">
-        <v>1</v>
-      </c>
-      <c r="F106" s="5">
-        <v>1</v>
-      </c>
-      <c r="G106" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E107" s="5">
-        <v>1</v>
-      </c>
-      <c r="F107" s="5">
-        <v>1</v>
-      </c>
-      <c r="G107" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="30">
-      <c r="A110" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E110" s="5">
-        <v>1</v>
-      </c>
-      <c r="F110" s="5">
-        <v>1</v>
-      </c>
-      <c r="G110" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E111" s="5">
-        <v>1</v>
-      </c>
-      <c r="F111" s="5">
-        <v>1</v>
-      </c>
-      <c r="G111" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E112" s="5">
-        <v>1</v>
-      </c>
-      <c r="F112" s="5">
-        <v>1</v>
-      </c>
-      <c r="G112" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="30">
-      <c r="A113" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E113" s="5">
-        <v>1</v>
-      </c>
-      <c r="F113" s="5">
-        <v>1</v>
-      </c>
-      <c r="G113" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E114" s="5">
-        <v>1</v>
-      </c>
-      <c r="F114" s="5">
-        <v>1</v>
-      </c>
-      <c r="G114" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="30">
-      <c r="A117" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E117" s="5">
-        <v>1</v>
-      </c>
-      <c r="F117" s="5">
-        <v>1</v>
-      </c>
-      <c r="G117" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E118" s="5">
-        <v>1</v>
-      </c>
-      <c r="F118" s="5">
-        <v>1</v>
-      </c>
-      <c r="G118" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E119" s="5">
-        <v>1</v>
-      </c>
-      <c r="F119" s="5">
-        <v>1</v>
-      </c>
-      <c r="G119" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="30">
-      <c r="A120" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E120" s="5">
-        <v>1</v>
-      </c>
-      <c r="F120" s="5">
-        <v>1</v>
-      </c>
-      <c r="G120" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E121" s="5">
-        <v>1</v>
-      </c>
-      <c r="F121" s="5">
-        <v>1</v>
-      </c>
-      <c r="G121" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="30">
-      <c r="A124" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E124" s="5">
-        <v>1</v>
-      </c>
-      <c r="F124" s="5">
-        <v>1</v>
-      </c>
-      <c r="G124" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E125" s="5">
-        <v>1</v>
-      </c>
-      <c r="F125" s="5">
-        <v>1</v>
-      </c>
-      <c r="G125" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E126" s="5">
-        <v>1</v>
-      </c>
-      <c r="F126" s="5">
-        <v>1</v>
-      </c>
-      <c r="G126" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="30">
-      <c r="A127" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E127" s="5">
-        <v>1</v>
-      </c>
-      <c r="F127" s="5">
-        <v>1</v>
-      </c>
-      <c r="G127" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E128" s="5">
-        <v>1</v>
-      </c>
-      <c r="F128" s="5">
-        <v>1</v>
-      </c>
-      <c r="G128" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="30">
-      <c r="A131" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E131" s="5">
-        <v>1</v>
-      </c>
-      <c r="F131" s="5">
-        <v>1</v>
-      </c>
-      <c r="G131" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E132" s="5">
-        <v>1</v>
-      </c>
-      <c r="F132" s="5">
-        <v>1</v>
-      </c>
-      <c r="G132" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E133" s="5">
-        <v>1</v>
-      </c>
-      <c r="F133" s="5">
-        <v>1</v>
-      </c>
-      <c r="G133" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="30">
-      <c r="A134" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E134" s="5">
-        <v>1</v>
-      </c>
-      <c r="F134" s="5">
-        <v>1</v>
-      </c>
-      <c r="G134" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E135" s="5">
-        <v>1</v>
-      </c>
-      <c r="F135" s="5">
-        <v>1</v>
-      </c>
-      <c r="G135" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="30">
-      <c r="A138" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E138" s="5">
-        <v>1</v>
-      </c>
-      <c r="F138" s="5">
-        <v>1</v>
-      </c>
-      <c r="G138" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E139" s="5">
-        <v>1</v>
-      </c>
-      <c r="F139" s="5">
-        <v>1</v>
-      </c>
-      <c r="G139" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E140" s="5">
-        <v>1</v>
-      </c>
-      <c r="F140" s="5">
-        <v>1</v>
-      </c>
-      <c r="G140" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="30">
-      <c r="A141" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E141" s="5">
-        <v>1</v>
-      </c>
-      <c r="F141" s="5">
-        <v>1</v>
-      </c>
-      <c r="G141" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E142" s="5">
-        <v>1</v>
-      </c>
-      <c r="F142" s="5">
-        <v>1</v>
-      </c>
-      <c r="G142" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="A144" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="30">
-      <c r="A145" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E145" s="5">
-        <v>1</v>
-      </c>
-      <c r="F145" s="5">
-        <v>1</v>
-      </c>
-      <c r="G145" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E146" s="5">
-        <v>1</v>
-      </c>
-      <c r="F146" s="5">
-        <v>1</v>
-      </c>
-      <c r="G146" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E147" s="5">
-        <v>1</v>
-      </c>
-      <c r="F147" s="5">
-        <v>1</v>
-      </c>
-      <c r="G147" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="30">
-      <c r="A148" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E148" s="5">
-        <v>1</v>
-      </c>
-      <c r="F148" s="5">
-        <v>1</v>
-      </c>
-      <c r="G148" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
-      <c r="A149" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E149" s="5">
-        <v>1</v>
-      </c>
-      <c r="F149" s="5">
-        <v>1</v>
-      </c>
-      <c r="G149" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
-      <c r="A151" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="30">
-      <c r="A152" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E152" s="5">
-        <v>1</v>
-      </c>
-      <c r="F152" s="5">
-        <v>1</v>
-      </c>
-      <c r="G152" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="A153" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E153" s="5">
-        <v>1</v>
-      </c>
-      <c r="F153" s="5">
-        <v>1</v>
-      </c>
-      <c r="G153" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="A154" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E154" s="5">
-        <v>1</v>
-      </c>
-      <c r="F154" s="5">
-        <v>1</v>
-      </c>
-      <c r="G154" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="30">
-      <c r="A155" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E155" s="5">
-        <v>1</v>
-      </c>
-      <c r="F155" s="5">
-        <v>1</v>
-      </c>
-      <c r="G155" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
-      <c r="A156" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E156" s="5">
-        <v>1</v>
-      </c>
-      <c r="F156" s="5">
-        <v>1</v>
-      </c>
-      <c r="G156" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="30">
-      <c r="A159" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E159" s="5">
-        <v>1</v>
-      </c>
-      <c r="F159" s="5">
-        <v>1</v>
-      </c>
-      <c r="G159" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E160" s="5">
-        <v>1</v>
-      </c>
-      <c r="F160" s="5">
-        <v>1</v>
-      </c>
-      <c r="G160" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="A161" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E161" s="5">
-        <v>1</v>
-      </c>
-      <c r="F161" s="5">
-        <v>1</v>
-      </c>
-      <c r="G161" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="30">
-      <c r="A162" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E162" s="5">
-        <v>1</v>
-      </c>
-      <c r="F162" s="5">
-        <v>1</v>
-      </c>
-      <c r="G162" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
-      <c r="A163" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E163" s="5">
-        <v>1</v>
-      </c>
-      <c r="F163" s="5">
-        <v>1</v>
-      </c>
-      <c r="G163" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
-      <c r="A164" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>26</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/resources/ClinicianAccount.xlsx
+++ b/resources/ClinicianAccount.xlsx
@@ -66,9 +66,6 @@
     <t>//input[@ng-model="vm.newUser.email"]</t>
   </si>
   <si>
-    <t>clinician.rn1@cvhcare.com</t>
-  </si>
-  <si>
     <t>Role</t>
   </si>
   <si>
@@ -105,24 +102,6 @@
     <t>//button[@ng-click="vm.newUserClick($event)"]</t>
   </si>
   <si>
-    <t>clinician.ot1@cvhcare.com</t>
-  </si>
-  <si>
-    <t>clinician.pt1@cvhcare.com</t>
-  </si>
-  <si>
-    <t>clinician.st1@cvhcare.com</t>
-  </si>
-  <si>
-    <t>clinician.msw1@cvhcare.com</t>
-  </si>
-  <si>
-    <t>clinician.chha1@cvhcare.com</t>
-  </si>
-  <si>
-    <t>clinician.rd1@cvhcare.com</t>
-  </si>
-  <si>
     <t>user1</t>
   </si>
   <si>
@@ -132,55 +111,76 @@
     <t>//button[@aria-label="Account Management"]</t>
   </si>
   <si>
-    <t>hr.user1@cvhcare.com</t>
-  </si>
-  <si>
     <t>//div[text() = 'HR' and @class="_md-text ng-binding"]</t>
   </si>
   <si>
     <t>Hr1</t>
   </si>
   <si>
-    <t>rn1</t>
-  </si>
-  <si>
-    <t>Ot1</t>
-  </si>
-  <si>
-    <t>Pt1</t>
-  </si>
-  <si>
-    <t>ST1</t>
-  </si>
-  <si>
-    <t>MSW1</t>
-  </si>
-  <si>
-    <t>chha1</t>
-  </si>
-  <si>
-    <t>rd1</t>
-  </si>
-  <si>
-    <t>Pta</t>
-  </si>
-  <si>
-    <t>clinician.pta1@cvhcare.com</t>
-  </si>
-  <si>
-    <t>lvn</t>
-  </si>
-  <si>
-    <t>cota</t>
-  </si>
-  <si>
-    <t>clinician.lvn1@cvhcare.com</t>
-  </si>
-  <si>
-    <t>clinician.cota1@cvhcare.com</t>
-  </si>
-  <si>
     <t>clinician</t>
+  </si>
+  <si>
+    <t>rn3</t>
+  </si>
+  <si>
+    <t>Ot3</t>
+  </si>
+  <si>
+    <t>Pt3</t>
+  </si>
+  <si>
+    <t>ST3</t>
+  </si>
+  <si>
+    <t>MSW3</t>
+  </si>
+  <si>
+    <t>chha3</t>
+  </si>
+  <si>
+    <t>rd3</t>
+  </si>
+  <si>
+    <t>lvn3</t>
+  </si>
+  <si>
+    <t>cota3</t>
+  </si>
+  <si>
+    <t>Pta3</t>
+  </si>
+  <si>
+    <t>hr.user3@cvhcare.com</t>
+  </si>
+  <si>
+    <t>clinician.rn3@cvhcare.com</t>
+  </si>
+  <si>
+    <t>clinician.ot3@cvhcare.com</t>
+  </si>
+  <si>
+    <t>clinician.pt3@cvhcare.com</t>
+  </si>
+  <si>
+    <t>clinician.st3@cvhcare.com</t>
+  </si>
+  <si>
+    <t>clinician.msw3@cvhcare.com</t>
+  </si>
+  <si>
+    <t>clinician.chha3@cvhcare.com</t>
+  </si>
+  <si>
+    <t>clinician.rd3@cvhcare.com</t>
+  </si>
+  <si>
+    <t>clinician.lvn3@cvhcare.com</t>
+  </si>
+  <si>
+    <t>clinician.cota3@cvhcare.com</t>
+  </si>
+  <si>
+    <t>clinician.pta3@cvhcare.com</t>
   </si>
 </sst>
 </file>
@@ -542,15 +542,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.7109375" style="5"/>
     <col min="2" max="2" width="56.140625" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="30.7109375" style="5"/>
+    <col min="3" max="4" width="30.7109375" style="5"/>
+    <col min="5" max="5" width="9.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="30.7109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -584,13 +588,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2"/>
       <c r="E2">
@@ -607,13 +611,13 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3"/>
       <c r="E3">
@@ -637,7 +641,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -654,7 +658,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -671,7 +675,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -679,13 +683,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7"/>
       <c r="E7">
@@ -700,13 +704,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8"/>
       <c r="E8">
@@ -721,13 +725,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9"/>
       <c r="E9">
@@ -742,13 +746,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -757,13 +761,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11"/>
       <c r="E11">
@@ -787,7 +791,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -804,7 +808,7 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
@@ -821,7 +825,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -829,13 +833,13 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15"/>
       <c r="E15">
@@ -850,13 +854,13 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16"/>
       <c r="E16">
@@ -871,13 +875,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17"/>
       <c r="E17">
@@ -892,13 +896,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" t="s">
         <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -907,13 +911,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19"/>
       <c r="E19">
@@ -937,7 +941,7 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
@@ -954,7 +958,7 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
@@ -971,7 +975,7 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
@@ -979,13 +983,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23"/>
       <c r="E23">
@@ -1000,13 +1004,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24"/>
       <c r="E24">
@@ -1021,13 +1025,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25"/>
       <c r="E25">
@@ -1042,13 +1046,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" t="s">
         <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -1057,13 +1061,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27"/>
       <c r="E27">
@@ -1087,7 +1091,7 @@
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
@@ -1104,7 +1108,7 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
@@ -1121,7 +1125,7 @@
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
@@ -1129,13 +1133,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31"/>
       <c r="E31">
@@ -1150,13 +1154,13 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32"/>
       <c r="E32">
@@ -1171,13 +1175,13 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33"/>
       <c r="E33">
@@ -1192,13 +1196,13 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" t="s">
         <v>25</v>
-      </c>
-      <c r="C34" t="s">
-        <v>26</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
@@ -1207,13 +1211,13 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35"/>
       <c r="E35">
@@ -1237,7 +1241,7 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E36"/>
       <c r="F36"/>
@@ -1254,7 +1258,7 @@
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E37"/>
       <c r="F37"/>
@@ -1271,7 +1275,7 @@
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E38"/>
       <c r="F38"/>
@@ -1279,13 +1283,13 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39"/>
       <c r="E39">
@@ -1300,13 +1304,13 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40"/>
       <c r="E40">
@@ -1321,13 +1325,13 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D41"/>
       <c r="E41">
@@ -1342,13 +1346,13 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="C42" t="s">
         <v>25</v>
-      </c>
-      <c r="C42" t="s">
-        <v>26</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -1357,13 +1361,13 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D43"/>
       <c r="E43">
@@ -1387,7 +1391,7 @@
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E44"/>
       <c r="F44"/>
@@ -1404,7 +1408,7 @@
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E45"/>
       <c r="F45"/>
@@ -1421,7 +1425,7 @@
         <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E46"/>
       <c r="F46"/>
@@ -1429,13 +1433,13 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D47"/>
       <c r="E47">
@@ -1450,13 +1454,13 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48"/>
       <c r="E48">
@@ -1471,13 +1475,13 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D49"/>
       <c r="E49">
@@ -1492,13 +1496,13 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="C50" t="s">
         <v>25</v>
-      </c>
-      <c r="C50" t="s">
-        <v>26</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
@@ -1507,13 +1511,13 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D51"/>
       <c r="E51">
@@ -1537,7 +1541,7 @@
         <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E52"/>
       <c r="F52"/>
@@ -1554,7 +1558,7 @@
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E53"/>
       <c r="F53"/>
@@ -1571,7 +1575,7 @@
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E54"/>
       <c r="F54"/>
@@ -1579,13 +1583,13 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D55"/>
       <c r="E55">
@@ -1600,13 +1604,13 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D56"/>
       <c r="E56">
@@ -1621,13 +1625,13 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D57"/>
       <c r="E57">
@@ -1642,13 +1646,13 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="C58" t="s">
         <v>25</v>
-      </c>
-      <c r="C58" t="s">
-        <v>26</v>
       </c>
       <c r="D58"/>
       <c r="E58"/>
@@ -1657,13 +1661,13 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D59"/>
       <c r="E59">
@@ -1687,7 +1691,7 @@
         <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E60"/>
       <c r="F60"/>
@@ -1704,7 +1708,7 @@
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E61"/>
       <c r="F61"/>
@@ -1721,7 +1725,7 @@
         <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E62"/>
       <c r="F62"/>
@@ -1729,13 +1733,13 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D63"/>
       <c r="E63">
@@ -1750,13 +1754,13 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D64"/>
       <c r="E64">
@@ -1771,13 +1775,13 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D65"/>
       <c r="E65">
@@ -1792,13 +1796,13 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="C66" t="s">
         <v>25</v>
-      </c>
-      <c r="C66" t="s">
-        <v>26</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
@@ -1807,13 +1811,13 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D67"/>
       <c r="E67">
@@ -1837,7 +1841,7 @@
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E68"/>
       <c r="F68"/>
@@ -1854,7 +1858,7 @@
         <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E69"/>
       <c r="F69"/>
@@ -1879,13 +1883,13 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D71"/>
       <c r="E71">
@@ -1900,13 +1904,13 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D72"/>
       <c r="E72">
@@ -1921,13 +1925,13 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D73"/>
       <c r="E73">
@@ -1942,13 +1946,13 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="C74" t="s">
         <v>25</v>
-      </c>
-      <c r="C74" t="s">
-        <v>26</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
@@ -1957,13 +1961,13 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="C75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D75"/>
       <c r="E75">
@@ -1987,7 +1991,7 @@
         <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E76"/>
       <c r="F76"/>
@@ -2004,7 +2008,7 @@
         <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E77"/>
       <c r="F77"/>
@@ -2029,13 +2033,13 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D79"/>
       <c r="E79">
@@ -2050,13 +2054,13 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D80"/>
       <c r="E80">
@@ -2071,13 +2075,13 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D81"/>
       <c r="E81">
@@ -2092,13 +2096,13 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="C82" t="s">
         <v>25</v>
-      </c>
-      <c r="C82" t="s">
-        <v>26</v>
       </c>
       <c r="D82"/>
       <c r="E82"/>
@@ -2107,13 +2111,13 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D83"/>
       <c r="E83">
@@ -2137,7 +2141,7 @@
         <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E84"/>
       <c r="F84"/>
@@ -2154,7 +2158,7 @@
         <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E85"/>
       <c r="F85"/>
@@ -2171,7 +2175,7 @@
         <v>11</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E86"/>
       <c r="F86"/>
@@ -2179,13 +2183,13 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="C87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D87"/>
       <c r="E87">
@@ -2200,13 +2204,13 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D88"/>
       <c r="E88">
@@ -2221,13 +2225,13 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D89"/>
       <c r="E89">
@@ -2242,13 +2246,13 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="C90" t="s">
         <v>25</v>
-      </c>
-      <c r="C90" t="s">
-        <v>26</v>
       </c>
       <c r="D90"/>
       <c r="E90"/>
@@ -2257,10 +2261,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1"/>
-    <hyperlink ref="D70" r:id="rId2"/>
-    <hyperlink ref="D78" r:id="rId3"/>
-    <hyperlink ref="D86" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId1" display="hr.user1@cvhcare.com"/>
+    <hyperlink ref="D70" r:id="rId2" display="clinician.lvn1@cvhcare.com"/>
+    <hyperlink ref="D78" r:id="rId3" display="clinician.cota1@cvhcare.com"/>
+    <hyperlink ref="D86" r:id="rId4" display="clinician.pta1@cvhcare.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>

--- a/resources/ClinicianAccount.xlsx
+++ b/resources/ClinicianAccount.xlsx
@@ -120,67 +120,67 @@
     <t>clinician</t>
   </si>
   <si>
-    <t>rn3</t>
-  </si>
-  <si>
-    <t>Ot3</t>
-  </si>
-  <si>
-    <t>Pt3</t>
-  </si>
-  <si>
-    <t>ST3</t>
-  </si>
-  <si>
-    <t>MSW3</t>
-  </si>
-  <si>
-    <t>chha3</t>
-  </si>
-  <si>
-    <t>rd3</t>
-  </si>
-  <si>
-    <t>lvn3</t>
-  </si>
-  <si>
-    <t>cota3</t>
-  </si>
-  <si>
-    <t>Pta3</t>
-  </si>
-  <si>
-    <t>hr.user3@cvhcare.com</t>
-  </si>
-  <si>
-    <t>clinician.rn3@cvhcare.com</t>
-  </si>
-  <si>
-    <t>clinician.ot3@cvhcare.com</t>
-  </si>
-  <si>
-    <t>clinician.pt3@cvhcare.com</t>
-  </si>
-  <si>
-    <t>clinician.st3@cvhcare.com</t>
-  </si>
-  <si>
-    <t>clinician.msw3@cvhcare.com</t>
-  </si>
-  <si>
-    <t>clinician.chha3@cvhcare.com</t>
-  </si>
-  <si>
-    <t>clinician.rd3@cvhcare.com</t>
-  </si>
-  <si>
-    <t>clinician.lvn3@cvhcare.com</t>
-  </si>
-  <si>
-    <t>clinician.cota3@cvhcare.com</t>
-  </si>
-  <si>
-    <t>clinician.pta3@cvhcare.com</t>
+    <t>hr.user4@cvhcare.com</t>
+  </si>
+  <si>
+    <t>rn4</t>
+  </si>
+  <si>
+    <t>clinician.rn4@cvhcare.com</t>
+  </si>
+  <si>
+    <t>Ot4</t>
+  </si>
+  <si>
+    <t>clinician.ot4@cvhcare.com</t>
+  </si>
+  <si>
+    <t>Pt4</t>
+  </si>
+  <si>
+    <t>clinician.pt4@cvhcare.com</t>
+  </si>
+  <si>
+    <t>ST4</t>
+  </si>
+  <si>
+    <t>clinician.st4@cvhcare.com</t>
+  </si>
+  <si>
+    <t>MSW4</t>
+  </si>
+  <si>
+    <t>clinician.msw4@cvhcare.com</t>
+  </si>
+  <si>
+    <t>chha4</t>
+  </si>
+  <si>
+    <t>clinician.chha4@cvhcare.com</t>
+  </si>
+  <si>
+    <t>rd4</t>
+  </si>
+  <si>
+    <t>clinician.rd4@cvhcare.com</t>
+  </si>
+  <si>
+    <t>lvn4</t>
+  </si>
+  <si>
+    <t>clinician.lvn4@cvhcare.com</t>
+  </si>
+  <si>
+    <t>cota4</t>
+  </si>
+  <si>
+    <t>clinician.cota4@cvhcare.com</t>
+  </si>
+  <si>
+    <t>Pta4</t>
+  </si>
+  <si>
+    <t>clinician.pta4@cvhcare.com</t>
   </si>
 </sst>
 </file>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" topLeftCell="C79" workbookViewId="0">
+      <selection activeCell="D7" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15"/>
@@ -557,7 +557,7 @@
     <col min="8" max="16384" width="30.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,7 +675,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -808,7 +808,7 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
@@ -825,7 +825,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -958,7 +958,7 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
@@ -975,7 +975,7 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
@@ -1108,7 +1108,7 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
@@ -1125,7 +1125,7 @@
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
@@ -1258,7 +1258,7 @@
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E37"/>
       <c r="F37"/>
@@ -1275,7 +1275,7 @@
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E38"/>
       <c r="F38"/>
@@ -1408,7 +1408,7 @@
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E45"/>
       <c r="F45"/>
@@ -1425,7 +1425,7 @@
         <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E46"/>
       <c r="F46"/>
@@ -1558,7 +1558,7 @@
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E53"/>
       <c r="F53"/>
@@ -1575,7 +1575,7 @@
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E54"/>
       <c r="F54"/>
@@ -1708,7 +1708,7 @@
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E61"/>
       <c r="F61"/>
@@ -1725,7 +1725,7 @@
         <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E62"/>
       <c r="F62"/>
@@ -1858,7 +1858,7 @@
         <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E69"/>
       <c r="F69"/>
@@ -1875,7 +1875,7 @@
         <v>11</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E70"/>
       <c r="F70"/>
@@ -2008,7 +2008,7 @@
         <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E77"/>
       <c r="F77"/>
@@ -2025,7 +2025,7 @@
         <v>11</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E78"/>
       <c r="F78"/>
@@ -2158,7 +2158,7 @@
         <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E85"/>
       <c r="F85"/>
